--- a/data/London_dataset_metadata.xlsx
+++ b/data/London_dataset_metadata.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\juroz\Desktop\Uni_Work\Spatial_Sciences\SDS_Project\Final_Files_Upload\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D50AFC2-70A0-4DFA-A605-FDBB88E58BBC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C88A8B3-7A39-488A-8FE1-A274E00EDF4C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1575" yWindow="1860" windowWidth="16740" windowHeight="11220" xr2:uid="{4A676972-209E-4EA1-8B82-BB3A0501D12A}"/>
+    <workbookView xWindow="90" yWindow="345" windowWidth="16740" windowHeight="11220" xr2:uid="{4A676972-209E-4EA1-8B82-BB3A0501D12A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>London_dataset Metadata</t>
   </si>
@@ -73,6 +73,21 @@
   </si>
   <si>
     <t>different ethnicities and distribution in %</t>
+  </si>
+  <si>
+    <t>% living in income deprived households reliant on means tested benefit</t>
+  </si>
+  <si>
+    <t>% of people aged over 60 who live in pension credit households</t>
+  </si>
+  <si>
+    <t>Deprivation - 2 columns:</t>
+  </si>
+  <si>
+    <t>English speaking abilities</t>
+  </si>
+  <si>
+    <t>4 measure of language skills in households as requested by Rishi</t>
   </si>
 </sst>
 </file>
@@ -108,8 +123,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -424,10 +442,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94ED4997-541F-43EA-92C4-ECBA195BC79C}">
-  <dimension ref="A1:B13"/>
+  <dimension ref="A1:B19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -489,6 +507,29 @@
         <v>12</v>
       </c>
     </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>16</v>
+      </c>
+      <c r="B19" t="s">
+        <v>17</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
